--- a/memory.xlsx
+++ b/memory.xlsx
@@ -412,112 +412,192 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>반가워용</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>헤위</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>펭하</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ㅎㅇ</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>안뇽!</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>기기</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>기기</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>호응ㄱㄱ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>우오아아아</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>개미는</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>뚠뚠</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>오늘도</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>뚠뚠</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>자기소개</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>안녕 안녕 나는 이나린이야</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>야김태희</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>왜 불러?</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>하.. 잠온다</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>나두..</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>나린이 바보..</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>아니야.. 나는 똑똑해..</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>펭하</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>펭하</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>나린아</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>왜</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>야</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>뭐</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>뭐해</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>건들지마</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>열심히 일을하네</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>뚠뚠</t>
         </is>
       </c>
     </row>

--- a/memory.xlsx
+++ b/memory.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7230" windowWidth="13830" xWindow="3360" yWindow="3360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -331,11 +331,11 @@
   </sheetPr>
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A120"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -604,119 +604,204 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>이산구조 6주차 답</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>집합 {1, 2, 3}에 대한 관계 R = {(1, 1), (1, 2), (2, 1), (3, 2)}에서 (2,2), (3,3) 두 개의 순서쌍을 추가하는 것이 반사적 폐쇄입니다</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>세상에 비호감 딱 두명있네</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>두비두밤</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>나밥먹어</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>야너두?야나두</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>어떻게 두명이나</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>두비두밤</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>누군지 정말 궁금 하구나</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>그게 너야~~~</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>영어가안되면</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>시원스쿨 닷컴</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>야 나두 했어</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>야 너두 할수있어 야나두-</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>녹화를</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>종료합니다</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>민영</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>펭수</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>마피아는</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>마른 뚱땡이</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>정민영</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>펭하~</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>야야</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>호</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>웃지마</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>멍청이</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>는 너</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>야야야야</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>그만불러라</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>야야야야야</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>야이 미친새끼</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>야야</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>잉?</t>
         </is>
       </c>
     </row>

--- a/memory.xlsx
+++ b/memory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7230" windowWidth="13830" xWindow="3360" yWindow="3360"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3360" yWindow="3360" windowWidth="13830" windowHeight="7230" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,15 +50,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="표준" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -808,14 +808,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>패널티</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>민영1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>패널티</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>한주1</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1383,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>